--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H2">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I2">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J2">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N2">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q2">
-        <v>2.876970261398001</v>
+        <v>4.465536577247334</v>
       </c>
       <c r="R2">
-        <v>25.89273235258201</v>
+        <v>40.189829195226</v>
       </c>
       <c r="S2">
-        <v>0.01542666492638804</v>
+        <v>0.03095028704423454</v>
       </c>
       <c r="T2">
-        <v>0.01542666492638804</v>
+        <v>0.03095028704423455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H3">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I3">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J3">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q3">
-        <v>42.34936361762801</v>
+        <v>22.97054941356823</v>
       </c>
       <c r="R3">
-        <v>381.1442725586521</v>
+        <v>206.734944722114</v>
       </c>
       <c r="S3">
-        <v>0.2270824454255756</v>
+        <v>0.1592070931713102</v>
       </c>
       <c r="T3">
-        <v>0.2270824454255756</v>
+        <v>0.1592070931713102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H4">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I4">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J4">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N4">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q4">
-        <v>39.458343530426</v>
+        <v>36.43950021477867</v>
       </c>
       <c r="R4">
-        <v>355.125091773834</v>
+        <v>327.955501933008</v>
       </c>
       <c r="S4">
-        <v>0.2115804436221052</v>
+        <v>0.2525593446355908</v>
       </c>
       <c r="T4">
-        <v>0.2115804436221052</v>
+        <v>0.2525593446355908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H5">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I5">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J5">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N5">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q5">
-        <v>9.068111736440001</v>
+        <v>8.324838185611444</v>
       </c>
       <c r="R5">
-        <v>81.61300562796001</v>
+        <v>74.92354367050301</v>
       </c>
       <c r="S5">
-        <v>0.04862431953159289</v>
+        <v>0.057698806623661</v>
       </c>
       <c r="T5">
-        <v>0.04862431953159289</v>
+        <v>0.057698806623661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H6">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I6">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J6">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N6">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q6">
-        <v>6.034973223122001</v>
+        <v>2.46890815976</v>
       </c>
       <c r="R6">
-        <v>54.314759008098</v>
+        <v>22.22017343784</v>
       </c>
       <c r="S6">
-        <v>0.03236026141875636</v>
+        <v>0.01711181062087011</v>
       </c>
       <c r="T6">
-        <v>0.03236026141875636</v>
+        <v>0.01711181062087011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H7">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I7">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J7">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N7">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q7">
-        <v>24.784761878614</v>
+        <v>8.63712707795389</v>
       </c>
       <c r="R7">
-        <v>223.062856907526</v>
+        <v>77.73414370158501</v>
       </c>
       <c r="S7">
-        <v>0.132898911716905</v>
+        <v>0.05986325667160635</v>
       </c>
       <c r="T7">
-        <v>0.132898911716905</v>
+        <v>0.05986325667160635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.010853</v>
       </c>
       <c r="I8">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J8">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N8">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q8">
-        <v>0.4375799560290001</v>
+        <v>1.252192805946</v>
       </c>
       <c r="R8">
-        <v>3.938219604261</v>
+        <v>11.269735253514</v>
       </c>
       <c r="S8">
-        <v>0.002346357016871903</v>
+        <v>0.008678851042497601</v>
       </c>
       <c r="T8">
-        <v>0.002346357016871904</v>
+        <v>0.008678851042497601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.010853</v>
       </c>
       <c r="I9">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J9">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q9">
         <v>6.441231916194001</v>
@@ -1013,10 +1013,10 @@
         <v>57.97108724574601</v>
       </c>
       <c r="S9">
-        <v>0.03453867000905184</v>
+        <v>0.04464367792673604</v>
       </c>
       <c r="T9">
-        <v>0.03453867000905186</v>
+        <v>0.04464367792673605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.010853</v>
       </c>
       <c r="I10">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J10">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N10">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q10">
-        <v>6.001515016922999</v>
+        <v>10.218095682768</v>
       </c>
       <c r="R10">
-        <v>54.013635152307</v>
+        <v>91.962861144912</v>
       </c>
       <c r="S10">
-        <v>0.03218085444225909</v>
+        <v>0.0708208272301443</v>
       </c>
       <c r="T10">
-        <v>0.03218085444225909</v>
+        <v>0.0708208272301443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.010853</v>
       </c>
       <c r="I11">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J11">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N11">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q11">
-        <v>1.37923703562</v>
+        <v>2.334389676663</v>
       </c>
       <c r="R11">
-        <v>12.41313332058</v>
+        <v>21.009507089967</v>
       </c>
       <c r="S11">
-        <v>0.007395636961584495</v>
+        <v>0.01617947346662523</v>
       </c>
       <c r="T11">
-        <v>0.007395636961584497</v>
+        <v>0.01617947346662523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.010853</v>
       </c>
       <c r="I12">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J12">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N12">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q12">
-        <v>0.917904280431</v>
+        <v>0.6923130026400001</v>
       </c>
       <c r="R12">
-        <v>8.261138523879</v>
+        <v>6.23081702376</v>
       </c>
       <c r="S12">
-        <v>0.004921914542775119</v>
+        <v>0.004798367628503944</v>
       </c>
       <c r="T12">
-        <v>0.004921914542775119</v>
+        <v>0.004798367628503944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.010853</v>
       </c>
       <c r="I13">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J13">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N13">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q13">
-        <v>3.769700075997</v>
+        <v>2.421959422785</v>
       </c>
       <c r="R13">
-        <v>33.927300683973</v>
+        <v>21.797634805065</v>
       </c>
       <c r="S13">
-        <v>0.02021359091738634</v>
+        <v>0.01678641257281824</v>
       </c>
       <c r="T13">
-        <v>0.02021359091738634</v>
+        <v>0.01678641257281824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H14">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I14">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J14">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N14">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q14">
-        <v>0.09771659318833335</v>
+        <v>0.3641896305026667</v>
       </c>
       <c r="R14">
-        <v>0.8794493386950002</v>
+        <v>3.277706674524</v>
       </c>
       <c r="S14">
-        <v>0.0005239682735309478</v>
+        <v>0.002524170031440981</v>
       </c>
       <c r="T14">
-        <v>0.0005239682735309479</v>
+        <v>0.002524170031440981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H15">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I15">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J15">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q15">
-        <v>1.438400525696667</v>
+        <v>1.873377534515111</v>
       </c>
       <c r="R15">
-        <v>12.94560473127</v>
+        <v>16.860397810636</v>
       </c>
       <c r="S15">
-        <v>0.007712878800867505</v>
+        <v>0.01298423413009067</v>
       </c>
       <c r="T15">
-        <v>0.007712878800867505</v>
+        <v>0.01298423413009067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H16">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I16">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J16">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N16">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q16">
-        <v>1.340206728718333</v>
+        <v>2.971846247221333</v>
       </c>
       <c r="R16">
-        <v>12.061860558465</v>
+        <v>26.746616224992</v>
       </c>
       <c r="S16">
-        <v>0.007186351702496163</v>
+        <v>0.02059763542672175</v>
       </c>
       <c r="T16">
-        <v>0.007186351702496165</v>
+        <v>0.02059763542672175</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H17">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I17">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J17">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N17">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q17">
-        <v>0.3079993552333334</v>
+        <v>0.6789373886802221</v>
       </c>
       <c r="R17">
-        <v>2.771994197100001</v>
+        <v>6.110436498122</v>
       </c>
       <c r="S17">
-        <v>0.001651530053848854</v>
+        <v>0.00470566228743535</v>
       </c>
       <c r="T17">
-        <v>0.001651530053848855</v>
+        <v>0.00470566228743535</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H18">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I18">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J18">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N18">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q18">
-        <v>0.2049784911783334</v>
+        <v>0.20135335024</v>
       </c>
       <c r="R18">
-        <v>1.844806420605</v>
+        <v>1.81218015216</v>
       </c>
       <c r="S18">
-        <v>0.001099119633926339</v>
+        <v>0.001395564425336723</v>
       </c>
       <c r="T18">
-        <v>0.001099119633926339</v>
+        <v>0.001395564425336723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H19">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I19">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J19">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N19">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q19">
-        <v>0.8418170066816667</v>
+        <v>0.7044063047544444</v>
       </c>
       <c r="R19">
-        <v>7.576353060135</v>
+        <v>6.339656742790001</v>
       </c>
       <c r="S19">
-        <v>0.004513925314300107</v>
+        <v>0.004882185365808299</v>
       </c>
       <c r="T19">
-        <v>0.004513925314300107</v>
+        <v>0.004882185365808299</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H20">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I20">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J20">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N20">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q20">
-        <v>0.6566606142318889</v>
+        <v>0.6817094049886667</v>
       </c>
       <c r="R20">
-        <v>5.909945528087</v>
+        <v>6.135384644898</v>
       </c>
       <c r="S20">
-        <v>0.003521094187879791</v>
+        <v>0.004724874917083217</v>
       </c>
       <c r="T20">
-        <v>0.003521094187879792</v>
+        <v>0.004724874917083218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H21">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I21">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J21">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q21">
-        <v>9.666126723175777</v>
+        <v>3.506687114102444</v>
       </c>
       <c r="R21">
-        <v>86.995140508582</v>
+        <v>31.560184026922</v>
       </c>
       <c r="S21">
-        <v>0.05183094872241682</v>
+        <v>0.02430457591788253</v>
       </c>
       <c r="T21">
-        <v>0.05183094872241682</v>
+        <v>0.02430457591788253</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H22">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I22">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J22">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N22">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q22">
-        <v>9.006259274529889</v>
+        <v>5.562858926309333</v>
       </c>
       <c r="R22">
-        <v>81.05633347076899</v>
+        <v>50.06573033678399</v>
       </c>
       <c r="S22">
-        <v>0.04829265909785038</v>
+        <v>0.0385557429835201</v>
       </c>
       <c r="T22">
-        <v>0.04829265909785039</v>
+        <v>0.0385557429835201</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H23">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I23">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J23">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N23">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q23">
-        <v>2.069771767428889</v>
+        <v>1.270870899379889</v>
       </c>
       <c r="R23">
-        <v>18.62794590686</v>
+        <v>11.437838094419</v>
       </c>
       <c r="S23">
-        <v>0.01109836829342403</v>
+        <v>0.008808307456798038</v>
       </c>
       <c r="T23">
-        <v>0.01109836829342403</v>
+        <v>0.008808307456798038</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H24">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I24">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J24">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N24">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q24">
-        <v>1.377466175699222</v>
+        <v>0.37690384648</v>
       </c>
       <c r="R24">
-        <v>12.397195581293</v>
+        <v>3.39213461832</v>
       </c>
       <c r="S24">
-        <v>0.007386141395017137</v>
+        <v>0.002612291274483945</v>
       </c>
       <c r="T24">
-        <v>0.007386141395017139</v>
+        <v>0.002612291274483945</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H25">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I25">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J25">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N25">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q25">
-        <v>5.657054289776777</v>
+        <v>1.318544963022778</v>
       </c>
       <c r="R25">
-        <v>50.913488607991</v>
+        <v>11.866904667205</v>
       </c>
       <c r="S25">
-        <v>0.03033381407160103</v>
+        <v>0.009138732687627089</v>
       </c>
       <c r="T25">
-        <v>0.03033381407160104</v>
+        <v>0.009138732687627089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H26">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I26">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J26">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N26">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q26">
-        <v>0.1830947538976667</v>
+        <v>0.6734803975960001</v>
       </c>
       <c r="R26">
-        <v>1.647852785079</v>
+        <v>6.061323578364001</v>
       </c>
       <c r="S26">
-        <v>0.0009817763694179651</v>
+        <v>0.004667840306239394</v>
       </c>
       <c r="T26">
-        <v>0.0009817763694179654</v>
+        <v>0.004667840306239394</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H27">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I27">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J27">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>57.348682</v>
       </c>
       <c r="O27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q27">
-        <v>2.695177775499333</v>
+        <v>3.464357414710667</v>
       </c>
       <c r="R27">
-        <v>24.256599979494</v>
+        <v>31.179216732396</v>
       </c>
       <c r="S27">
-        <v>0.01445187147658327</v>
+        <v>0.02401119206042025</v>
       </c>
       <c r="T27">
-        <v>0.01445187147658327</v>
+        <v>0.02401119206042026</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H28">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I28">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J28">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N28">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q28">
-        <v>2.511188869363666</v>
+        <v>5.495708895968</v>
       </c>
       <c r="R28">
-        <v>22.60069982427299</v>
+        <v>49.461380063712</v>
       </c>
       <c r="S28">
-        <v>0.01346530055396679</v>
+        <v>0.03809033134078881</v>
       </c>
       <c r="T28">
-        <v>0.0134653005539668</v>
+        <v>0.03809033134078881</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H29">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I29">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J29">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N29">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q29">
-        <v>0.5771083938466666</v>
+        <v>1.255530043071333</v>
       </c>
       <c r="R29">
-        <v>5.19397554462</v>
+        <v>11.299770387642</v>
       </c>
       <c r="S29">
-        <v>0.003094525493549021</v>
+        <v>0.008701981173709605</v>
       </c>
       <c r="T29">
-        <v>0.003094525493549022</v>
+        <v>0.008701981173709605</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H30">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I30">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J30">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N30">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q30">
-        <v>0.3840748553756666</v>
+        <v>0.37235418864</v>
       </c>
       <c r="R30">
-        <v>3.456673698380999</v>
+        <v>3.35118769776</v>
       </c>
       <c r="S30">
-        <v>0.002059456150809231</v>
+        <v>0.002580757949503802</v>
       </c>
       <c r="T30">
-        <v>0.002059456150809231</v>
+        <v>0.002580757949503802</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H31">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I31">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J31">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N31">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q31">
-        <v>1.577339862516333</v>
+        <v>1.302628626576667</v>
       </c>
       <c r="R31">
-        <v>14.196058762647</v>
+        <v>11.72365763919</v>
       </c>
       <c r="S31">
-        <v>0.008457888446247027</v>
+        <v>0.009028417796420126</v>
       </c>
       <c r="T31">
-        <v>0.008457888446247027</v>
+        <v>0.009028417796420126</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H32">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I32">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J32">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N32">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q32">
-        <v>0.05499331516444446</v>
+        <v>0.2968871766940001</v>
       </c>
       <c r="R32">
-        <v>0.4949398364800001</v>
+        <v>2.671984590246</v>
       </c>
       <c r="S32">
-        <v>0.0002948808535201525</v>
+        <v>0.002057701953500927</v>
       </c>
       <c r="T32">
-        <v>0.0002948808535201525</v>
+        <v>0.002057701953500927</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H33">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I33">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J33">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>57.348682</v>
       </c>
       <c r="O33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q33">
-        <v>0.8095085068088891</v>
+        <v>1.527176285432667</v>
       </c>
       <c r="R33">
-        <v>7.285576561280001</v>
+        <v>13.744586568894</v>
       </c>
       <c r="S33">
-        <v>0.004340683203146201</v>
+        <v>0.0105847401725741</v>
       </c>
       <c r="T33">
-        <v>0.004340683203146203</v>
+        <v>0.0105847401725741</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H34">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I34">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J34">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N34">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q34">
-        <v>0.7542466290844445</v>
+        <v>2.422647346352</v>
       </c>
       <c r="R34">
-        <v>6.78821966176</v>
+        <v>21.803826117168</v>
       </c>
       <c r="S34">
-        <v>0.004044362284471228</v>
+        <v>0.01679118051760938</v>
       </c>
       <c r="T34">
-        <v>0.004044362284471229</v>
+        <v>0.01679118051760938</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H35">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I35">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J35">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N35">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q35">
-        <v>0.1733370460444445</v>
+        <v>0.5534693675903333</v>
       </c>
       <c r="R35">
-        <v>1.5600334144</v>
+        <v>4.981224308313</v>
       </c>
       <c r="S35">
-        <v>0.0009294543515226194</v>
+        <v>0.003836053182139907</v>
       </c>
       <c r="T35">
-        <v>0.0009294543515226196</v>
+        <v>0.003836053182139906</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H36">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I36">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J36">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N36">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q36">
-        <v>0.1153585731911111</v>
+        <v>0.16414313496</v>
       </c>
       <c r="R36">
-        <v>1.03822715872</v>
+        <v>1.47728821464</v>
       </c>
       <c r="S36">
-        <v>0.0006185667189137798</v>
+        <v>0.001137663314468726</v>
       </c>
       <c r="T36">
-        <v>0.00061856671891378</v>
+        <v>0.001137663314468725</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H37">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I37">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J37">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N37">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q37">
-        <v>0.4737609698488889</v>
+        <v>0.5742316132816667</v>
       </c>
       <c r="R37">
-        <v>4.26384872864</v>
+        <v>5.168084519535</v>
       </c>
       <c r="S37">
-        <v>0.002540364019441759</v>
+        <v>0.003979954693797841</v>
       </c>
       <c r="T37">
-        <v>0.00254036401944176</v>
+        <v>0.00397995469379784</v>
       </c>
     </row>
   </sheetData>
